--- a/excel/Contexto estratégico.xlsx
+++ b/excel/Contexto estratégico.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IDENTIFICACIÓN DEL CONTEXTO</t>
   </si>
@@ -110,12 +110,15 @@
       <t>LIMITANTES DE LA PANDEMIA</t>
     </r>
   </si>
+  <si>
+    <t>ewrerfsdfsdffassfs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -199,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -223,6 +232,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -505,9 +517,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B21"/>
     </sheetView>
   </sheetViews>
@@ -625,6 +637,11 @@
     <row r="21" spans="1:2" s="4" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/excel/Contexto estratégico.xlsx
+++ b/excel/Contexto estratégico.xlsx
@@ -77,13 +77,6 @@
     <t>AMENAZAS</t>
   </si>
   <si>
-    <t xml:space="preserve">• Oferta amplia de temas y actividades a desarrollar con comunidades
-• Compromiso, buena actitud, sentido de pertenencia,  responsabilidad, ética, Transparencia, respeto por el otro, respeto por las diferencias, enfoque de inclusión, enfoque de corresponsabilidad, proactividad, creatividad, recursividad, trabajo en equipo
-• Equipo interdisciplinario con múltiples habilidades. 
-• Conocimiento del proceso 
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">• Los tiempos administrativos internos para toma de decisiones 
 • Alteración del orden publico 
@@ -113,12 +106,39 @@
   <si>
     <t>ewrerfsdfsdffassfs</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Oferta amplia de temas y actividades a desarrollar con comunidades
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wefwfsgfaedgadgsdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+• Compromiso, buena actitud, sentido de pertenencia,  responsabilidad, ética, Transparencia, respeto por el otro, respeto por las diferencias, enfoque de inclusión, enfoque de corresponsabilidad, proactividad, creatividad, recursividad, trabajo en equipo
+• Equipo interdisciplinario con múltiples habilidades. 
+• Conocimiento del proceso 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +171,12 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -519,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,10 +634,10 @@
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +666,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
